--- a/Test/Lawnmower/T2/Sensors_data_1000016.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000016.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7434883257216525</v>
+        <v>0.2143866724096329</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008360596407474588</v>
+        <v>0.03858777318458413</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0609459700746609</v>
+        <v>0.3957691924511294</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9492946012148796</v>
+        <v>0.9515098361121237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002153598326942583</v>
+        <v>0.001038268358157593</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09846733556212878</v>
+        <v>0.09666276428691359</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,118 +525,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9552533512791376</v>
+        <v>0.8254213619416899</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002812751658048375</v>
+        <v>0.004321598816686422</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007628245127719147</v>
+        <v>0.274597636830396</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3099846809625434</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02132897579509234</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4027906116765201</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9981585493298515</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0001238850470366516</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.06595628010798654</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9517246726601473</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.002092622132679726</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.003126391727342748</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>s7</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9101589141925835</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.004116745408171299</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2365453274779103</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
